--- a/biology/Botanique/Karpatiosorbus/Karpatiosorbus.xlsx
+++ b/biology/Botanique/Karpatiosorbus/Karpatiosorbus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karpatiosorbus est un genre de plantes à fleurs de la famille des Rosaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont de petits arbres ou arbustes à feuilles simples, de couleur blanchâtre à grisâtre ou verdâtre en dessous, avec 7 à 12 paires de nervures latérales, avec des lobes petits à proéminents, plutôt aigus, avec un nombre variable de dents. Les fleurs ont des pétales blancs et deux ou trois styles. Les fruits sont assez gros, jaunâtres, ou orange-brun rougeâtre, avec de nombreuses grandes lenticelles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de petits arbres ou arbustes à feuilles simples, de couleur blanchâtre à grisâtre ou verdâtre en dessous, avec 7 à 12 paires de nervures latérales, avec des lobes petits à proéminents, plutôt aigus, avec un nombre variable de dents. Les fleurs ont des pétales blancs et deux ou trois styles. Les fruits sont assez gros, jaunâtres, ou orange-brun rougeâtre, avec de nombreuses grandes lenticelles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est représenté en Europe et en Algérie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est représenté en Europe et en Algérie.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ce genre a été décrit en 2017 pour regrouper les espèces hybridogènes issues de croisements stables entre les genres Aria et Torminalis. Le nom est dédicacé au botaniste hongrois Zoltán Kárpáti (d), spécialiste des Sorbus. L'espèce type est Karpatiosorbus latifolia[1].
-Karpatiosorbus a pour synonymes[1],[3],[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ce genre a été décrit en 2017 pour regrouper les espèces hybridogènes issues de croisements stables entre les genres Aria et Torminalis. Le nom est dédicacé au botaniste hongrois Zoltán Kárpáti (d), spécialiste des Sorbus. L'espèce type est Karpatiosorbus latifolia.
+Karpatiosorbus a pour synonymes :
 Sorbus subgen. Tormaria Májovský &amp; Bernátová, 2001
 Sorbus sect. Tormaria (Májovský &amp; Bernátová) P.D.Sell, 2014 nom. inval.
 ×Tormaria Mezhenskyj, 2012</t>
@@ -607,9 +625,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (7 avril 2024)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (7 avril 2024) :
 Karpatiosorbus acutiserrata (C.Németh) Sennikov &amp; Kurtto
 Karpatiosorbus adamii (Kárpáti) Sennikov &amp; Kurtto
 Karpatiosorbus adeana (N.Mey.) Sennikov &amp; Kurtto
